--- a/dataset/ChatGPT vs. MTurk quality scores.xlsx
+++ b/dataset/ChatGPT vs. MTurk quality scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoan/Documents/Research Work/Research Proposal/Backup/ChatGPT - NLE generation/AMT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanhuan/Downloads/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7101C21-74AB-F14E-B526-6AC33CF15944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1721EAB3-9A8A-294D-AFEE-05A1D2E9BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1440" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,21 +626,6 @@
     <t>post</t>
   </si>
   <si>
-    <t>GT_implied_statment</t>
-  </si>
-  <si>
-    <t>Info_GT</t>
-  </si>
-  <si>
-    <t>Clar_GT</t>
-  </si>
-  <si>
-    <t>Info_gpt</t>
-  </si>
-  <si>
-    <t>Clar_gpt</t>
-  </si>
-  <si>
     <t>the post is implicitly hateful because it compares the use of a derogatory term for a marginalized group to a term used to describe white people, which trivializes the harm caused by racist language and promotes harmful stereotypes.</t>
   </si>
   <si>
@@ -941,7 +926,22 @@
     <t>the post is implicitly hateful because it dehumanizes and delegitimizes a group of people based on their religion, and promotes a false binary between "jihad terror" and "Ahmadis" which can incite violence against them.</t>
   </si>
   <si>
-    <t>ChatGPT_answers</t>
+    <t>human NLE</t>
+  </si>
+  <si>
+    <t>Info_human_NLE</t>
+  </si>
+  <si>
+    <t>Clar_human_NLE</t>
+  </si>
+  <si>
+    <t>ChatGPT NLE</t>
+  </si>
+  <si>
+    <t>Info_chatgpt_NLE</t>
+  </si>
+  <si>
+    <t>Clar_chatgpt_NLE</t>
   </si>
 </sst>
 </file>
@@ -1784,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="F300" sqref="F300"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1795,22 +1795,22 @@
         <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="C1" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="D1" t="s">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="E1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" t="s">
         <v>302</v>
-      </c>
-      <c r="F1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1827,7 +1827,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -1850,7 +1850,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -1873,7 +1873,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -1896,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1919,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1942,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1965,7 +1965,7 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1988,7 +1988,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -2011,7 +2011,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -2034,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2057,7 +2057,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F13">
         <v>7</v>
@@ -2103,7 +2103,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -2126,7 +2126,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2149,7 +2149,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -2172,7 +2172,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -2195,7 +2195,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -2218,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2264,7 +2264,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2287,7 +2287,7 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -2310,7 +2310,7 @@
         <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -2333,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -2356,7 +2356,7 @@
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F25">
         <v>3</v>
@@ -2379,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F26">
         <v>7</v>
@@ -2402,7 +2402,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2425,7 +2425,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -2448,7 +2448,7 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -2471,7 +2471,7 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -2494,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -2517,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -2540,7 +2540,7 @@
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F33">
         <v>6</v>
@@ -2563,7 +2563,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -2586,7 +2586,7 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -2609,7 +2609,7 @@
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F36">
         <v>6</v>
@@ -2632,7 +2632,7 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -2655,7 +2655,7 @@
         <v>6</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F38">
         <v>7</v>
@@ -2678,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -2701,7 +2701,7 @@
         <v>6</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -2724,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F42">
         <v>7</v>
@@ -2770,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F43">
         <v>6</v>
@@ -2793,7 +2793,7 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F44">
         <v>6</v>
@@ -2816,7 +2816,7 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -2839,7 +2839,7 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -2862,7 +2862,7 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F47">
         <v>7</v>
@@ -2885,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2908,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F49">
         <v>6</v>
@@ -2931,7 +2931,7 @@
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F50">
         <v>7</v>
@@ -2954,7 +2954,7 @@
         <v>6</v>
       </c>
       <c r="E51" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -2977,7 +2977,7 @@
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F52">
         <v>6</v>
@@ -3000,7 +3000,7 @@
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F53">
         <v>6</v>
@@ -3023,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F54">
         <v>6</v>
@@ -3046,7 +3046,7 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F55">
         <v>7</v>
@@ -3069,7 +3069,7 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F56">
         <v>5</v>
@@ -3092,7 +3092,7 @@
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -3115,7 +3115,7 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F58">
         <v>6</v>
@@ -3138,7 +3138,7 @@
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F59">
         <v>7</v>
@@ -3161,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F60">
         <v>7</v>
@@ -3184,7 +3184,7 @@
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -3207,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -3230,7 +3230,7 @@
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F63">
         <v>7</v>
@@ -3253,7 +3253,7 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F64">
         <v>7</v>
@@ -3276,7 +3276,7 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F65">
         <v>7</v>
@@ -3299,7 +3299,7 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -3322,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F67">
         <v>7</v>
@@ -3345,7 +3345,7 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F68">
         <v>5</v>
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -3391,7 +3391,7 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F70">
         <v>7</v>
@@ -3414,7 +3414,7 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F71">
         <v>5</v>
@@ -3437,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F72">
         <v>6</v>
@@ -3460,7 +3460,7 @@
         <v>6</v>
       </c>
       <c r="E73" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3483,7 +3483,7 @@
         <v>6</v>
       </c>
       <c r="E74" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F74">
         <v>4</v>
@@ -3506,7 +3506,7 @@
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F75">
         <v>4</v>
@@ -3529,7 +3529,7 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F77">
         <v>4</v>
@@ -3575,7 +3575,7 @@
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F78">
         <v>7</v>
@@ -3598,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F79">
         <v>5</v>
@@ -3621,7 +3621,7 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3644,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F81">
         <v>7</v>
@@ -3667,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F82">
         <v>3</v>
@@ -3690,7 +3690,7 @@
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F83">
         <v>4</v>
@@ -3713,7 +3713,7 @@
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F84">
         <v>2</v>
@@ -3736,7 +3736,7 @@
         <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -3759,7 +3759,7 @@
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F86">
         <v>4</v>
@@ -3782,7 +3782,7 @@
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F87">
         <v>5</v>
@@ -3805,7 +3805,7 @@
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F88">
         <v>5</v>
@@ -3828,7 +3828,7 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F89">
         <v>5</v>
@@ -3851,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F90">
         <v>6</v>
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F91">
         <v>6</v>
@@ -3897,7 +3897,7 @@
         <v>4</v>
       </c>
       <c r="E92" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F92">
         <v>6</v>
@@ -3920,7 +3920,7 @@
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F93">
         <v>6</v>
@@ -3943,7 +3943,7 @@
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3966,7 +3966,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F95">
         <v>6</v>
@@ -3989,7 +3989,7 @@
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F96">
         <v>6</v>
@@ -4012,7 +4012,7 @@
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F97">
         <v>7</v>
@@ -4035,7 +4035,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F98">
         <v>5</v>
@@ -4058,7 +4058,7 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F100">
         <v>3</v>
@@ -4104,7 +4104,7 @@
         <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F101">
         <v>7</v>
@@ -4127,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F102">
         <v>7</v>
@@ -4150,7 +4150,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F103">
         <v>6</v>
@@ -4173,7 +4173,7 @@
         <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F104">
         <v>5</v>
@@ -4196,7 +4196,7 @@
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F105">
         <v>5</v>
@@ -4219,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="E106" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F106">
         <v>6</v>
@@ -4242,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F107">
         <v>7</v>
@@ -4265,7 +4265,7 @@
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F108">
         <v>7</v>
@@ -4288,7 +4288,7 @@
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F109">
         <v>7</v>
@@ -4311,7 +4311,7 @@
         <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F110">
         <v>5</v>
@@ -4334,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F111">
         <v>5</v>
@@ -4357,7 +4357,7 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F112">
         <v>6</v>
@@ -4380,7 +4380,7 @@
         <v>6</v>
       </c>
       <c r="E113" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F113">
         <v>6</v>
@@ -4403,7 +4403,7 @@
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F114">
         <v>4</v>
@@ -4426,7 +4426,7 @@
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F115">
         <v>7</v>
@@ -4449,7 +4449,7 @@
         <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F116">
         <v>7</v>
@@ -4472,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F117">
         <v>5</v>
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F118">
         <v>5</v>
@@ -4518,7 +4518,7 @@
         <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F119">
         <v>7</v>
@@ -4541,7 +4541,7 @@
         <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F120">
         <v>7</v>
@@ -4564,7 +4564,7 @@
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F121">
         <v>6</v>
@@ -4587,7 +4587,7 @@
         <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F122">
         <v>7</v>
@@ -4610,7 +4610,7 @@
         <v>4</v>
       </c>
       <c r="E123" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F123">
         <v>6</v>
@@ -4633,7 +4633,7 @@
         <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F124">
         <v>6</v>
@@ -4656,7 +4656,7 @@
         <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F125">
         <v>6</v>
@@ -4679,7 +4679,7 @@
         <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F126">
         <v>4</v>
@@ -4702,7 +4702,7 @@
         <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F127">
         <v>3</v>
@@ -4725,7 +4725,7 @@
         <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F128">
         <v>6</v>
@@ -4748,7 +4748,7 @@
         <v>5</v>
       </c>
       <c r="E129" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -4771,7 +4771,7 @@
         <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F130">
         <v>5</v>
@@ -4794,7 +4794,7 @@
         <v>4</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F131">
         <v>7</v>
@@ -4817,7 +4817,7 @@
         <v>6</v>
       </c>
       <c r="E132" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F132">
         <v>7</v>
@@ -4840,7 +4840,7 @@
         <v>4</v>
       </c>
       <c r="E133" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -4863,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="E134" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F134">
         <v>5</v>
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="E135" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F135">
         <v>6</v>
@@ -4909,7 +4909,7 @@
         <v>2</v>
       </c>
       <c r="E136" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F136">
         <v>6</v>
@@ -4932,7 +4932,7 @@
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F137">
         <v>5</v>
@@ -4955,7 +4955,7 @@
         <v>6</v>
       </c>
       <c r="E138" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F138">
         <v>6</v>
@@ -4978,7 +4978,7 @@
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F139">
         <v>6</v>
@@ -5001,7 +5001,7 @@
         <v>6</v>
       </c>
       <c r="E140" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F140">
         <v>5</v>
@@ -5024,7 +5024,7 @@
         <v>6</v>
       </c>
       <c r="E141" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F141">
         <v>3</v>
@@ -5047,7 +5047,7 @@
         <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F142">
         <v>6</v>
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F143">
         <v>5</v>
@@ -5093,7 +5093,7 @@
         <v>6</v>
       </c>
       <c r="E144" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F144">
         <v>2</v>
@@ -5116,7 +5116,7 @@
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F145">
         <v>7</v>
@@ -5139,7 +5139,7 @@
         <v>6</v>
       </c>
       <c r="E146" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F146">
         <v>2</v>
@@ -5162,7 +5162,7 @@
         <v>4</v>
       </c>
       <c r="E147" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -5185,7 +5185,7 @@
         <v>6</v>
       </c>
       <c r="E148" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F148">
         <v>7</v>
@@ -5208,7 +5208,7 @@
         <v>6</v>
       </c>
       <c r="E149" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F149">
         <v>4</v>
@@ -5231,7 +5231,7 @@
         <v>6</v>
       </c>
       <c r="E150" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F150">
         <v>7</v>
@@ -5254,7 +5254,7 @@
         <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F151">
         <v>6</v>
@@ -5277,7 +5277,7 @@
         <v>4</v>
       </c>
       <c r="E152" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -5300,7 +5300,7 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F153">
         <v>7</v>
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F154">
         <v>7</v>
@@ -5346,7 +5346,7 @@
         <v>5</v>
       </c>
       <c r="E155" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F155">
         <v>7</v>
@@ -5369,7 +5369,7 @@
         <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F156">
         <v>7</v>
@@ -5392,7 +5392,7 @@
         <v>4</v>
       </c>
       <c r="E157" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F157">
         <v>7</v>
@@ -5415,7 +5415,7 @@
         <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F158">
         <v>6</v>
@@ -5438,7 +5438,7 @@
         <v>4</v>
       </c>
       <c r="E159" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F159">
         <v>6</v>
@@ -5461,7 +5461,7 @@
         <v>6</v>
       </c>
       <c r="E160" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F160">
         <v>7</v>
@@ -5484,7 +5484,7 @@
         <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -5507,7 +5507,7 @@
         <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F162">
         <v>3</v>
@@ -5530,7 +5530,7 @@
         <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>6</v>
       </c>
       <c r="E164" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F164">
         <v>7</v>
@@ -5576,7 +5576,7 @@
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F165">
         <v>5</v>
@@ -5599,7 +5599,7 @@
         <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F166">
         <v>7</v>
@@ -5622,7 +5622,7 @@
         <v>6</v>
       </c>
       <c r="E167" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F167">
         <v>6</v>
@@ -5645,7 +5645,7 @@
         <v>6</v>
       </c>
       <c r="E168" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F168">
         <v>3</v>
@@ -5668,7 +5668,7 @@
         <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F169">
         <v>3</v>
@@ -5691,7 +5691,7 @@
         <v>6</v>
       </c>
       <c r="E170" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F170">
         <v>7</v>
@@ -5714,7 +5714,7 @@
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F171">
         <v>7</v>
@@ -5737,7 +5737,7 @@
         <v>4</v>
       </c>
       <c r="E172" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F172">
         <v>7</v>
@@ -5760,7 +5760,7 @@
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F173">
         <v>6</v>
@@ -5783,7 +5783,7 @@
         <v>2</v>
       </c>
       <c r="E174" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F174">
         <v>5</v>
@@ -5806,7 +5806,7 @@
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F175">
         <v>6</v>
@@ -5829,7 +5829,7 @@
         <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F176">
         <v>7</v>
@@ -5852,7 +5852,7 @@
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F177">
         <v>4</v>
@@ -5875,7 +5875,7 @@
         <v>6</v>
       </c>
       <c r="E178" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F178">
         <v>3</v>
@@ -5898,7 +5898,7 @@
         <v>2</v>
       </c>
       <c r="E179" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F179">
         <v>6</v>
@@ -5921,7 +5921,7 @@
         <v>3</v>
       </c>
       <c r="E180" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F180">
         <v>6</v>
@@ -5944,7 +5944,7 @@
         <v>2</v>
       </c>
       <c r="E181" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F181">
         <v>6</v>
@@ -5967,7 +5967,7 @@
         <v>6</v>
       </c>
       <c r="E182" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F182">
         <v>5</v>
@@ -5990,7 +5990,7 @@
         <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F183">
         <v>6</v>
@@ -6013,7 +6013,7 @@
         <v>7</v>
       </c>
       <c r="E184" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F184">
         <v>7</v>
@@ -6036,7 +6036,7 @@
         <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F185">
         <v>5</v>
@@ -6059,7 +6059,7 @@
         <v>4</v>
       </c>
       <c r="E186" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F186">
         <v>7</v>
@@ -6082,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F187">
         <v>5</v>
@@ -6105,7 +6105,7 @@
         <v>6</v>
       </c>
       <c r="E188" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F188">
         <v>7</v>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F189">
         <v>7</v>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F190">
         <v>7</v>
@@ -6174,7 +6174,7 @@
         <v>4</v>
       </c>
       <c r="E191" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F191">
         <v>6</v>
@@ -6197,7 +6197,7 @@
         <v>3</v>
       </c>
       <c r="E192" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F192">
         <v>6</v>
@@ -6220,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="E193" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F193">
         <v>6</v>
@@ -6243,7 +6243,7 @@
         <v>6</v>
       </c>
       <c r="E194" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F194">
         <v>4</v>
@@ -6266,7 +6266,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F195">
         <v>7</v>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F196">
         <v>6</v>
@@ -6312,7 +6312,7 @@
         <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F197">
         <v>6</v>
@@ -6335,7 +6335,7 @@
         <v>4</v>
       </c>
       <c r="E198" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F198">
         <v>7</v>
@@ -6358,7 +6358,7 @@
         <v>2</v>
       </c>
       <c r="E199" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F199">
         <v>7</v>
@@ -6381,7 +6381,7 @@
         <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F200">
         <v>4</v>
@@ -6404,7 +6404,7 @@
         <v>3</v>
       </c>
       <c r="E201" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F201">
         <v>7</v>
@@ -6427,7 +6427,7 @@
         <v>2</v>
       </c>
       <c r="E202" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F202">
         <v>6</v>
@@ -6450,7 +6450,7 @@
         <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F203">
         <v>6</v>
@@ -6473,7 +6473,7 @@
         <v>5</v>
       </c>
       <c r="E204" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F205">
         <v>7</v>
@@ -6519,7 +6519,7 @@
         <v>5</v>
       </c>
       <c r="E206" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F206">
         <v>6</v>
@@ -6542,7 +6542,7 @@
         <v>5</v>
       </c>
       <c r="E207" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F207">
         <v>3</v>
@@ -6565,7 +6565,7 @@
         <v>5</v>
       </c>
       <c r="E208" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F208">
         <v>6</v>
@@ -6588,7 +6588,7 @@
         <v>4</v>
       </c>
       <c r="E209" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F209">
         <v>4</v>
@@ -6611,7 +6611,7 @@
         <v>4</v>
       </c>
       <c r="E210" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F210">
         <v>7</v>
@@ -6634,7 +6634,7 @@
         <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F211">
         <v>7</v>
@@ -6657,7 +6657,7 @@
         <v>6</v>
       </c>
       <c r="E212" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F212">
         <v>7</v>
@@ -6680,7 +6680,7 @@
         <v>5</v>
       </c>
       <c r="E213" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F213">
         <v>6</v>
@@ -6703,7 +6703,7 @@
         <v>5</v>
       </c>
       <c r="E214" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F214">
         <v>7</v>
@@ -6726,7 +6726,7 @@
         <v>5</v>
       </c>
       <c r="E215" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F215">
         <v>4</v>
@@ -6749,7 +6749,7 @@
         <v>6</v>
       </c>
       <c r="E216" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F216">
         <v>7</v>
@@ -6772,7 +6772,7 @@
         <v>6</v>
       </c>
       <c r="E217" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F217">
         <v>7</v>
@@ -6795,7 +6795,7 @@
         <v>5</v>
       </c>
       <c r="E218" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F218">
         <v>4</v>
@@ -6818,7 +6818,7 @@
         <v>6</v>
       </c>
       <c r="E219" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F219">
         <v>5</v>
@@ -6841,7 +6841,7 @@
         <v>6</v>
       </c>
       <c r="E220" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F220">
         <v>6</v>
@@ -6864,7 +6864,7 @@
         <v>3</v>
       </c>
       <c r="E221" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F221">
         <v>7</v>
@@ -6887,7 +6887,7 @@
         <v>3</v>
       </c>
       <c r="E222" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F222">
         <v>7</v>
@@ -6910,7 +6910,7 @@
         <v>2</v>
       </c>
       <c r="E223" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F223">
         <v>7</v>
@@ -6933,7 +6933,7 @@
         <v>3</v>
       </c>
       <c r="E224" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F224">
         <v>5</v>
@@ -6956,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="E225" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F225">
         <v>3</v>
@@ -6979,7 +6979,7 @@
         <v>7</v>
       </c>
       <c r="E226" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F226">
         <v>7</v>
@@ -7002,7 +7002,7 @@
         <v>5</v>
       </c>
       <c r="E227" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F227">
         <v>3</v>
@@ -7025,7 +7025,7 @@
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F228">
         <v>6</v>
@@ -7048,7 +7048,7 @@
         <v>5</v>
       </c>
       <c r="E229" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F229">
         <v>7</v>
@@ -7071,7 +7071,7 @@
         <v>4</v>
       </c>
       <c r="E230" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F230">
         <v>4</v>
@@ -7094,7 +7094,7 @@
         <v>6</v>
       </c>
       <c r="E231" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F231">
         <v>4</v>
@@ -7117,7 +7117,7 @@
         <v>5</v>
       </c>
       <c r="E232" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F232">
         <v>6</v>
@@ -7140,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F233">
         <v>7</v>
@@ -7163,7 +7163,7 @@
         <v>3</v>
       </c>
       <c r="E234" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F234">
         <v>7</v>
@@ -7186,7 +7186,7 @@
         <v>4</v>
       </c>
       <c r="E235" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F235">
         <v>6</v>
@@ -7209,7 +7209,7 @@
         <v>7</v>
       </c>
       <c r="E236" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F236">
         <v>6</v>
@@ -7232,7 +7232,7 @@
         <v>5</v>
       </c>
       <c r="E237" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F237">
         <v>4</v>
@@ -7255,7 +7255,7 @@
         <v>4</v>
       </c>
       <c r="E238" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F238">
         <v>6</v>
@@ -7278,7 +7278,7 @@
         <v>5</v>
       </c>
       <c r="E239" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F239">
         <v>6</v>
@@ -7301,7 +7301,7 @@
         <v>5</v>
       </c>
       <c r="E240" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F240">
         <v>7</v>
@@ -7324,7 +7324,7 @@
         <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F241">
         <v>6</v>
@@ -7347,7 +7347,7 @@
         <v>4</v>
       </c>
       <c r="E242" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F242">
         <v>4</v>
@@ -7370,7 +7370,7 @@
         <v>6</v>
       </c>
       <c r="E243" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -7393,7 +7393,7 @@
         <v>6</v>
       </c>
       <c r="E244" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F244">
         <v>6</v>
@@ -7416,7 +7416,7 @@
         <v>3</v>
       </c>
       <c r="E245" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F245">
         <v>2</v>
@@ -7439,7 +7439,7 @@
         <v>1</v>
       </c>
       <c r="E246" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F246">
         <v>7</v>
@@ -7462,7 +7462,7 @@
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F247">
         <v>3</v>
@@ -7485,7 +7485,7 @@
         <v>6</v>
       </c>
       <c r="E248" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F248">
         <v>7</v>
@@ -7508,7 +7508,7 @@
         <v>6</v>
       </c>
       <c r="E249" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F249">
         <v>4</v>
@@ -7531,7 +7531,7 @@
         <v>4</v>
       </c>
       <c r="E250" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F250">
         <v>7</v>
@@ -7554,7 +7554,7 @@
         <v>5</v>
       </c>
       <c r="E251" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F251">
         <v>5</v>
@@ -7577,7 +7577,7 @@
         <v>3</v>
       </c>
       <c r="E252" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F252">
         <v>6</v>
@@ -7600,7 +7600,7 @@
         <v>1</v>
       </c>
       <c r="E253" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -7623,7 +7623,7 @@
         <v>5</v>
       </c>
       <c r="E254" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F254">
         <v>4</v>
@@ -7646,7 +7646,7 @@
         <v>3</v>
       </c>
       <c r="E255" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F255">
         <v>5</v>
@@ -7669,7 +7669,7 @@
         <v>3</v>
       </c>
       <c r="E256" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="F256">
         <v>6</v>
@@ -7692,7 +7692,7 @@
         <v>5</v>
       </c>
       <c r="E257" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F257">
         <v>5</v>
@@ -7715,7 +7715,7 @@
         <v>4</v>
       </c>
       <c r="E258" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F258">
         <v>7</v>
@@ -7738,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="E259" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F259">
         <v>7</v>
@@ -7761,7 +7761,7 @@
         <v>4</v>
       </c>
       <c r="E260" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F260">
         <v>3</v>
@@ -7784,7 +7784,7 @@
         <v>3</v>
       </c>
       <c r="E261" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F261">
         <v>2</v>
@@ -7807,7 +7807,7 @@
         <v>4</v>
       </c>
       <c r="E262" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F262">
         <v>2</v>
@@ -7830,7 +7830,7 @@
         <v>7</v>
       </c>
       <c r="E263" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F263">
         <v>6</v>
@@ -7853,7 +7853,7 @@
         <v>5</v>
       </c>
       <c r="E264" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F264">
         <v>4</v>
@@ -7876,7 +7876,7 @@
         <v>6</v>
       </c>
       <c r="E265" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F265">
         <v>5</v>
@@ -7899,7 +7899,7 @@
         <v>5</v>
       </c>
       <c r="E266" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F266">
         <v>6</v>
@@ -7922,7 +7922,7 @@
         <v>6</v>
       </c>
       <c r="E267" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F267">
         <v>7</v>
@@ -7945,7 +7945,7 @@
         <v>7</v>
       </c>
       <c r="E268" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F268">
         <v>7</v>
@@ -7968,7 +7968,7 @@
         <v>6</v>
       </c>
       <c r="E269" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F269">
         <v>5</v>
@@ -7991,7 +7991,7 @@
         <v>3</v>
       </c>
       <c r="E270" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F270">
         <v>1</v>
@@ -8014,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="E271" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F271">
         <v>6</v>
@@ -8037,7 +8037,7 @@
         <v>3</v>
       </c>
       <c r="E272" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F272">
         <v>6</v>
@@ -8060,7 +8060,7 @@
         <v>3</v>
       </c>
       <c r="E273" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F273">
         <v>6</v>
@@ -8083,7 +8083,7 @@
         <v>2</v>
       </c>
       <c r="E274" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F274">
         <v>7</v>
@@ -8106,7 +8106,7 @@
         <v>7</v>
       </c>
       <c r="E275" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F275">
         <v>7</v>
@@ -8129,7 +8129,7 @@
         <v>6</v>
       </c>
       <c r="E276" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F276">
         <v>6</v>
@@ -8152,7 +8152,7 @@
         <v>3</v>
       </c>
       <c r="E277" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F277">
         <v>7</v>
@@ -8175,7 +8175,7 @@
         <v>6</v>
       </c>
       <c r="E278" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F278">
         <v>7</v>
@@ -8198,7 +8198,7 @@
         <v>7</v>
       </c>
       <c r="E279" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F279">
         <v>7</v>
@@ -8221,7 +8221,7 @@
         <v>6</v>
       </c>
       <c r="E280" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F280">
         <v>7</v>
@@ -8244,7 +8244,7 @@
         <v>6</v>
       </c>
       <c r="E281" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F281">
         <v>7</v>
@@ -8267,7 +8267,7 @@
         <v>5</v>
       </c>
       <c r="E282" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F282">
         <v>7</v>
@@ -8290,7 +8290,7 @@
         <v>7</v>
       </c>
       <c r="E283" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F283">
         <v>7</v>
@@ -8313,7 +8313,7 @@
         <v>4</v>
       </c>
       <c r="E284" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F284">
         <v>3</v>
@@ -8336,7 +8336,7 @@
         <v>3</v>
       </c>
       <c r="E285" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F285">
         <v>6</v>
@@ -8359,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="E286" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F286">
         <v>7</v>
@@ -8382,7 +8382,7 @@
         <v>6</v>
       </c>
       <c r="E287" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F287">
         <v>6</v>
@@ -8405,7 +8405,7 @@
         <v>5</v>
       </c>
       <c r="E288" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F288">
         <v>7</v>
@@ -8428,7 +8428,7 @@
         <v>6</v>
       </c>
       <c r="E289" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F289">
         <v>6</v>
@@ -8451,7 +8451,7 @@
         <v>4</v>
       </c>
       <c r="E290" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -8474,7 +8474,7 @@
         <v>3</v>
       </c>
       <c r="E291" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -8497,7 +8497,7 @@
         <v>2</v>
       </c>
       <c r="E292" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -8520,7 +8520,7 @@
         <v>2</v>
       </c>
       <c r="E293" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F293">
         <v>3</v>
@@ -8543,7 +8543,7 @@
         <v>2</v>
       </c>
       <c r="E294" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F294">
         <v>6</v>
@@ -8566,7 +8566,7 @@
         <v>3</v>
       </c>
       <c r="E295" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F295">
         <v>7</v>
@@ -8589,7 +8589,7 @@
         <v>6</v>
       </c>
       <c r="E296" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F296">
         <v>7</v>
@@ -8612,7 +8612,7 @@
         <v>3</v>
       </c>
       <c r="E297" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F297">
         <v>6</v>
@@ -8635,7 +8635,7 @@
         <v>5</v>
       </c>
       <c r="E298" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F298">
         <v>6</v>
@@ -8658,7 +8658,7 @@
         <v>6</v>
       </c>
       <c r="E299" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F299">
         <v>5</v>
@@ -8681,7 +8681,7 @@
         <v>6</v>
       </c>
       <c r="E300" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F300">
         <v>2</v>
@@ -8704,7 +8704,7 @@
         <v>6</v>
       </c>
       <c r="E301" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F301">
         <v>6</v>

--- a/dataset/ChatGPT vs. MTurk quality scores.xlsx
+++ b/dataset/ChatGPT vs. MTurk quality scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fanhuan/Downloads/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1721EAB3-9A8A-294D-AFEE-05A1D2E9BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CAF17C-1464-F743-9C5E-D046C9419B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1440" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
